--- a/data/parameters.xlsx
+++ b/data/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\NBA_fantasy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD542A85-F3F1-4F3C-A3EC-F12001CD6E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CEA77-8F87-41E5-BFBA-60EE2336FF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chrome_ver" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="remove" sheetId="2" r:id="rId3"/>
     <sheet name="url" sheetId="5" r:id="rId4"/>
     <sheet name="scrape_call" sheetId="6" r:id="rId5"/>
+    <sheet name="espn_api" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
   <si>
     <t>num</t>
   </si>
@@ -344,6 +345,24 @@
   </si>
   <si>
     <t>points</t>
+  </si>
+  <si>
+    <t>swid</t>
+  </si>
+  <si>
+    <t>espn_s2</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>league_id</t>
+  </si>
+  <si>
+    <t>{1AFA2BA9-0A5B-499B-BC41-CA32FDB46E50}</t>
+  </si>
+  <si>
+    <t>AEB9IogDihpmnSBySa1Dt%2BBZGNCwhpyrx1lOauwtvC2Zk4%2F1%2FXPWx%2BBr2HCsUsK3IL3Y6ansGgILWrmKQ5KG3em296twmYEMjOUDGa%2FwYNQ44GBlps9n6Vtts4%2Fh43ivZJzUzMH6dK5%2BQTwyG4wOoj6hXAjyq6gtHh5qSUDJDxqmeaCejF%2BntpFFHdx5kTfcE46%2F0XnWu7IAW2svLYPC53uMQPeYyBkNwMVfOincdbVpgcbquuF898mZeOnWG8ZjbI4e6Wg9q403IYw5o9ua%2FFk5uRCnpit%2FB9x7zgCmOsmhhA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -693,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1598,4 +1617,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A9F646-F43D-4142-AE84-17444D6F5F85}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>44419657</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/parameters.xlsx
+++ b/data/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\NBA_fantasy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CEA77-8F87-41E5-BFBA-60EE2336FF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED1B50-9F7C-4A68-A0DF-D452E3C95AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chrome_ver" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
   <si>
     <t>num</t>
   </si>
@@ -341,9 +341,6 @@
     <t>df_nba_30</t>
   </si>
   <si>
-    <t>108.0.5359.71</t>
-  </si>
-  <si>
     <t>points</t>
   </si>
   <si>
@@ -363,16 +360,30 @@
   </si>
   <si>
     <t>AEB9IogDihpmnSBySa1Dt%2BBZGNCwhpyrx1lOauwtvC2Zk4%2F1%2FXPWx%2BBr2HCsUsK3IL3Y6ansGgILWrmKQ5KG3em296twmYEMjOUDGa%2FwYNQ44GBlps9n6Vtts4%2Fh43ivZJzUzMH6dK5%2BQTwyG4wOoj6hXAjyq6gtHh5qSUDJDxqmeaCejF%2BntpFFHdx5kTfcE46%2F0XnWu7IAW2svLYPC53uMQPeYyBkNwMVfOincdbVpgcbquuF898mZeOnWG8ZjbI4e6Wg9q403IYw5o9ua%2FFk5uRCnpit%2FB9x7zgCmOsmhhA%3D%3D</t>
+  </si>
+  <si>
+    <t>114.0.5735.90</t>
+  </si>
+  <si>
+    <t>drop_down2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -395,17 +406,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,7 +714,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +819,7 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1194,9 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFED4B7-1B93-40AB-B8FE-801A159314E8}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1237,11 +1249,11 @@
       <c r="A2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>90</v>
@@ -1286,13 +1298,16 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{03E175EE-174A-4ACE-A9AD-5AC68CACDAF8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3291AD-E243-4646-8A4C-F08910020A55}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1321,7 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1316,8 +1331,11 @@
       <c r="C1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1325,10 +1343,13 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -1336,10 +1357,13 @@
         <v>99</v>
       </c>
       <c r="C3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1347,10 +1371,13 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1358,10 +1385,13 @@
         <v>101</v>
       </c>
       <c r="C5">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1369,10 +1399,13 @@
         <v>102</v>
       </c>
       <c r="C6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1383,7 +1416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1394,7 +1427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1405,7 +1438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1416,7 +1449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1427,7 +1460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1438,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1449,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1460,7 +1493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1471,7 +1504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1623,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A9F646-F43D-4142-AE84-17444D6F5F85}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1633,16 +1666,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
       <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,10 +1686,10 @@
         <v>44419657</v>
       </c>
       <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
       </c>
       <c r="E2" s="1"/>
     </row>

--- a/data/parameters.xlsx
+++ b/data/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\NBA_fantasy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\Projects\NBA_fantasy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED1B50-9F7C-4A68-A0DF-D452E3C95AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A036BF08-33E1-4B04-99B1-7F8770B4E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chrome_ver" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="remove" sheetId="2" r:id="rId3"/>
     <sheet name="url" sheetId="5" r:id="rId4"/>
     <sheet name="scrape_call" sheetId="6" r:id="rId5"/>
-    <sheet name="espn_api" sheetId="7" r:id="rId6"/>
+    <sheet name="scrape_call_old" sheetId="8" r:id="rId6"/>
+    <sheet name="espn_api" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="112">
   <si>
     <t>num</t>
   </si>
@@ -239,9 +240,6 @@
     <t>week_16</t>
   </si>
   <si>
-    <t>week_17</t>
-  </si>
-  <si>
     <t>week_19</t>
   </si>
   <si>
@@ -359,13 +357,16 @@
     <t>{1AFA2BA9-0A5B-499B-BC41-CA32FDB46E50}</t>
   </si>
   <si>
-    <t>AEB9IogDihpmnSBySa1Dt%2BBZGNCwhpyrx1lOauwtvC2Zk4%2F1%2FXPWx%2BBr2HCsUsK3IL3Y6ansGgILWrmKQ5KG3em296twmYEMjOUDGa%2FwYNQ44GBlps9n6Vtts4%2Fh43ivZJzUzMH6dK5%2BQTwyG4wOoj6hXAjyq6gtHh5qSUDJDxqmeaCejF%2BntpFFHdx5kTfcE46%2F0XnWu7IAW2svLYPC53uMQPeYyBkNwMVfOincdbVpgcbquuF898mZeOnWG8ZjbI4e6Wg9q403IYw5o9ua%2FFk5uRCnpit%2FB9x7zgCmOsmhhA%3D%3D</t>
-  </si>
-  <si>
-    <t>114.0.5735.90</t>
-  </si>
-  <si>
     <t>drop_down2</t>
+  </si>
+  <si>
+    <t>week_18</t>
+  </si>
+  <si>
+    <t>AECe6cBB%2BK%2BVhSSg7gHMup5bKLob5BI8gs4FwpdOBBCbCfNDHrO1gLIX8KBJSePV3xUdBnTgWPx938SJHImFVCLexgssAxYFNSw5UHBjeCzD%2BTrPL8ctd5lkOb1NdfSYMO3SW4rCaCnyfnwUKdB3MTtT%2Fn%2BZOobEeGIaV%2Fa3VZXRsqpDHd92Albu%2FmWnWopmoeV2sZGhSCfYsjZYlcmSS51jgkO7GE8sb4pjWt2pOwSuHT6nG4G0cDknK4MVJ17yt8iWxDqoC465BmO2sFv2V7pcXy7lwPpLa0AnswXY7glbmA%3D%3D</t>
+  </si>
+  <si>
+    <t>118.0.5993.70</t>
   </si>
 </sst>
 </file>
@@ -697,10 +698,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4913C3ED-F11D-4F7F-99D0-5A951914AD08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -714,7 +715,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -744,7 +745,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -752,7 +753,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -760,7 +761,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -768,7 +769,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
@@ -776,7 +777,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -784,7 +785,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -792,7 +793,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -800,7 +801,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -808,7 +809,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -816,15 +817,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -832,7 +833,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -840,7 +841,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -848,7 +849,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -856,7 +857,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -864,7 +865,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -947,7 +948,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +956,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D73DB4C-CE1C-496E-A963-0D14C7DA864B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -980,12 +981,12 @@
         <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -993,7 +994,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1001,7 +1002,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1009,7 +1010,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1017,7 +1018,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1025,7 +1026,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1033,7 +1034,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1041,7 +1042,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1049,7 +1050,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -1057,7 +1058,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1065,7 +1066,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1073,7 +1074,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1081,7 +1082,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1089,7 +1090,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -1097,7 +1098,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -1105,7 +1106,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -1116,7 +1117,7 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1133,7 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1141,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1149,7 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +1157,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,7 +1165,7 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1173,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +1181,7 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1189,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1197,7 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1205,10 +1206,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFED4B7-1B93-40AB-B8FE-801A159314E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1230,24 +1231,24 @@
         <v>31</v>
       </c>
       <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>41</v>
       </c>
       <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
         <v>93</v>
-      </c>
-      <c r="H1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -1256,19 +1257,19 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,10 +1283,10 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -1299,15 +1300,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{03E175EE-174A-4ACE-A9AD-5AC68CACDAF8}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3291AD-E243-4646-8A4C-F08910020A55}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1332,12 +1333,12 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -1351,58 +1352,46 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>62</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C4">
-        <v>63</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>64</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>65</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,10 +1399,10 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,10 +1410,10 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,10 +1421,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,10 +1432,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,10 +1443,10 @@
         <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,10 +1454,10 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1476,10 +1465,10 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,10 +1487,10 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,10 +1498,10 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,10 +1509,10 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,10 +1520,10 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1542,10 +1531,10 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1553,10 +1542,10 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,10 +1553,10 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,10 +1564,10 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,10 +1575,10 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,53 +1586,9 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C24">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28">
         <v>33</v>
       </c>
     </row>
@@ -1653,7 +1598,352 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A9F646-F43D-4142-AE84-17444D6F5F85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <v>62</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1666,34 +1956,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
       <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
         <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2">
         <v>44419657</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>